--- a/Donnees/Statistiques Démographiques et sociales/Education/Taux Net de Scolarisation 2006-2023.xlsx
+++ b/Donnees/Statistiques Démographiques et sociales/Education/Taux Net de Scolarisation 2006-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Base de Données ANSADE Med Salem_Education et Santé\Base Ahd Salem_Education et Santé\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\2025\Annuaire des Statistiques Socio-démographiques_Edition 2025_VP\Atelier de Finalisation et Validation de l'Annuaire 2025\Portail DSDSG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34132680-4279-445C-B84B-CCACC37C10A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B130E7DA-D2D1-4DD2-B6FE-5A8641D6E682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Garçons" sheetId="4" r:id="rId1"/>
@@ -1138,28 +1138,28 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>24</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>71.13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>78.569999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>70.19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>70.290000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>86.89</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>81.489999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>120.08</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>75.94</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>85.26</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>81.48</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>84.27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>89.06</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>80.2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
@@ -1610,24 +1610,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40D9C6B-8B5F-43D6-B8D8-03B871EC205E}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="1" customWidth="1"/>
-    <col min="2" max="5" width="11.5546875" style="1"/>
-    <col min="6" max="6" width="11.5546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="22.36328125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="11.54296875" style="1"/>
+    <col min="6" max="6" width="11.54296875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>24</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>67.78</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>75.2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>73.44</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>68.010000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>85.91</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>86.83</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>107.83</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>84.2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>80.39</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>86.97</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>77.959999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>74.63</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>80.13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
@@ -2077,24 +2077,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EC6352-EA11-4F17-8AF6-AD1C5672D00E}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>161</v>
       </c>
@@ -2103,7 +2103,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>82.9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>81.099999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>80.2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>78.19</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
